--- a/KMZI_Lab9/Runtime_Lab9.xlsx
+++ b/KMZI_Lab9/Runtime_Lab9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valda\source\repos\semester#6\КМЗИ\KMZI_Lab8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valda\source\repos\semester#6\КМЗИ\KMZI_Lab9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A79106-9634-4E6B-AD02-86D50E41CE14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E13025-5664-4765-AB68-8C5B82512162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12200" xr2:uid="{1DC8C33E-B76C-4BAC-BCE2-F4FD51554A28}"/>
   </bookViews>
@@ -30,19 +30,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Кол-во символов</t>
   </si>
   <si>
-    <t>PRG (ticks)</t>
+    <t>Encrypt (ms)</t>
+  </si>
+  <si>
+    <t>Decrypt (ms)</t>
+  </si>
+  <si>
+    <t>Encrypt ASCII (ms)</t>
+  </si>
+  <si>
+    <t>Decrypt ASCII (ms)</t>
+  </si>
+  <si>
+    <t>Encrypt Base64 (ms)</t>
+  </si>
+  <si>
+    <t>Decrypt Base64 (ms)</t>
+  </si>
+  <si>
+    <t>ASCII</t>
+  </si>
+  <si>
+    <t>Base64</t>
+  </si>
+  <si>
+    <t>Члены ключевой последовательности</t>
+  </si>
+  <si>
+    <t>Кол-во членов</t>
+  </si>
+  <si>
+    <t>100 000 символов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +90,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -69,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -92,11 +140,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -109,6 +175,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -147,7 +224,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -161,11 +238,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Время выполнения</a:t>
+              <a:t>Время зашифрования и расшифрования</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> генерации ПСП</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>в </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ASCII</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -184,7 +269,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -215,41 +300,42 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PRG (ticks)</c:v>
+                  <c:v>Encrypt ASCII (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$3:$B$7</c:f>
+              <c:f>Лист1!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -261,33 +347,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$3:$C$7</c:f>
+              <c:f>Лист1!$C$3:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>2013</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27312</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131982</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1442764</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17224060</c:v>
+                  <c:v>3197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -307,39 +387,43 @@
               <c:f>Лист1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decrypt ASCII (ms)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$3:$B$7</c:f>
+              <c:f>Лист1!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -351,9 +435,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,6 +445,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>3179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -371,156 +464,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C9EB-4B18-9553-B293E56A57C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$B$3:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$E$3:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C9EB-4B18-9553-B293E56A57C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$B$3:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$F$3:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C9EB-4B18-9553-B293E56A57C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -560,25 +503,26 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
                 <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
+                  <c:symbol val="diamond"/>
+                  <c:size val="6"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent1"/>
+                        <a:schemeClr val="accent2"/>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -588,13 +532,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$B$3:$B$7</c15:sqref>
+                          <c15:sqref>Лист1!$B$3:$B$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -606,9 +550,6 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>10000000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>100000000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -658,6 +599,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -665,7 +620,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -697,7 +652,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -735,7 +690,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -764,20 +719,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -785,7 +726,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -799,13 +740,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Время</a:t>
+                  <a:t>Время выполнения (мс)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> выполнения (мс)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -822,7 +758,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -838,14 +774,20 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -882,7 +824,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -925,11 +867,1411 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-BY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время зашифрования и расшифрования</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>в </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base64</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-BY"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encrypt Base64 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$3:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9692-444D-9C23-B1D85929505F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decrypt Base64 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>3216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9692-444D-9C23-B1D85929505F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1595514496"/>
+        <c:axId val="1362369392"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Кол-во символов</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$3:$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$3:$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-9692-444D-9C23-B1D85929505F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1595514496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Кол-во символов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362369392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1362369392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время выполнения (мс)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1595514496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-BY"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-BY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время зашифрования и расшифрования</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>при</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> разных </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1" baseline="0"/>
+              <a:t>z</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-BY"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encrypt (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$M$3:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C24-460A-8211-377F4DF3280F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decrypt (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$3:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>5729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C24-460A-8211-377F4DF3280F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1595514496"/>
+        <c:axId val="1362369392"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Кол-во символов</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:tint val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:tint val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:tint val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$3:$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$3:$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-3C24-460A-8211-377F4DF3280F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1595514496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Кол-во символов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362369392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1362369392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время выполнения (мс)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1595514496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-BY"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -954,12 +2296,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -993,8 +2332,51 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1005,7 +2387,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1028,18 +2410,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1051,7 +2433,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1059,11 +2441,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1095,35 +2477,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1135,30 +2527,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1180,15 +2576,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1203,10 +2597,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -1214,67 +2644,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1287,54 +2778,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1344,8 +2798,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1355,66 +2809,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1423,14 +2818,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1444,7 +2839,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1460,8 +2855,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1477,6 +2872,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1484,14 +2890,1050 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1500,14 +3942,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5810</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>642663</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>7101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>17212</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8606</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>8607</xdr:rowOff>
     </xdr:to>
@@ -1529,6 +3971,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>939357</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8606</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>10111</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AE344F-9732-4198-922D-6CF7ACE391D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1506</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2979383-36B7-47B4-94A1-9E821C72E7AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1834,94 +4352,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD605D35-1AD8-4F6A-9F77-E75FD8DB0B84}">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.296875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.8984375" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" customWidth="1"/>
-    <col min="6" max="6" width="20.09765625" customWidth="1"/>
+    <col min="1" max="1" width="6.296875" customWidth="1"/>
+    <col min="2" max="3" width="17.09765625" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" customWidth="1"/>
+    <col min="9" max="9" width="18.296875" customWidth="1"/>
+    <col min="10" max="10" width="9.296875" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" customWidth="1"/>
+    <col min="12" max="12" width="16.19921875" customWidth="1"/>
+    <col min="13" max="13" width="17.19921875" customWidth="1"/>
+    <col min="14" max="14" width="17.3984375" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+    <row r="1" spans="2:16" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
+      <c r="G1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>10000</v>
       </c>
       <c r="C3" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
+      <c r="G3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="6">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>53</v>
+      </c>
+      <c r="N3" s="6">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>100000</v>
       </c>
       <c r="C4" s="2">
-        <v>27312</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
+      <c r="G4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>36</v>
+      </c>
+      <c r="I4" s="6">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2">
+        <v>100</v>
+      </c>
+      <c r="M4" s="2">
+        <v>89</v>
+      </c>
+      <c r="N4" s="6">
+        <v>93</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1000000</v>
       </c>
       <c r="C5" s="2">
-        <v>131982</v>
-      </c>
-      <c r="D5" s="5"/>
+        <v>391</v>
+      </c>
+      <c r="D5" s="6">
+        <v>328</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
+      <c r="G5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>405</v>
+      </c>
+      <c r="I5" s="6">
+        <v>354</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="2">
+        <v>783</v>
+      </c>
+      <c r="N5" s="6">
+        <v>641</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>10000000</v>
       </c>
       <c r="C6" s="2">
-        <v>1442764</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>3197</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3179</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
+      <c r="G6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3208</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3216</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5103</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5729</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>17224060</v>
-      </c>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="9" spans="2:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
